--- a/F_dataset/DUD-E/FAK1/FAK1_prepare/FAK1_total.xlsx
+++ b/F_dataset/DUD-E/FAK1/FAK1_prepare/FAK1_total.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T195"/>
+  <dimension ref="A1:T171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10395,2022 +10395,6 @@
       <c r="S171" t="inlineStr"/>
       <c r="T171" t="inlineStr"/>
     </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>CHEMBL4066053</t>
-        </is>
-      </c>
-      <c r="B172" t="n">
-        <v>1</v>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>FC(F)(F)c1cccc(N2CCN(Cn3nc(-c4ccc5c(c4)OCCO5)oc3=S)CC2)c1</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>FC(F)(F)c1cccc(N2CCN(Cn3nc(-c4ccc5c(c4)OCCO5)oc3=S)CC2)c1</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G172" t="n">
-        <v>478.5</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>7</v>
-      </c>
-      <c r="J172" t="n">
-        <v>4</v>
-      </c>
-      <c r="K172" t="n">
-        <v>5</v>
-      </c>
-      <c r="L172" t="n">
-        <v>3</v>
-      </c>
-      <c r="M172" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="N172" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O172" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P172" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q172" t="n">
-        <v>780</v>
-      </c>
-      <c r="R172" t="inlineStr">
-        <is>
-          <t>CHEMBL4017675</t>
-        </is>
-      </c>
-      <c r="S172" t="inlineStr">
-        <is>
-          <t>Inhibition of FAK (unknown origin) by enzyme immuno assay</t>
-        </is>
-      </c>
-      <c r="T172" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>CHEMBL2207440</t>
-        </is>
-      </c>
-      <c r="B173" t="n">
-        <v>1</v>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>Cc1ccc(-n2nc(C(C)(C)C)cc2NC(=O)Nc2cc(-c3ccc4ncccc4c3)[nH]n2)cc1</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>Cc1ccc(-n2nc(C(C)(C)C)cc2NC(=O)Nc2cc(-c3ccc4ncccc4c3)[nH]n2)cc1</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G173" t="n">
-        <v>465.56</v>
-      </c>
-      <c r="H173" t="n">
-        <v>3</v>
-      </c>
-      <c r="I173" t="n">
-        <v>4</v>
-      </c>
-      <c r="J173" t="n">
-        <v>4</v>
-      </c>
-      <c r="K173" t="n">
-        <v>5</v>
-      </c>
-      <c r="L173" t="n">
-        <v>5</v>
-      </c>
-      <c r="M173" t="n">
-        <v>100.52</v>
-      </c>
-      <c r="N173" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O173" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P173" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q173" t="n">
-        <v>608</v>
-      </c>
-      <c r="R173" t="inlineStr">
-        <is>
-          <t>CHEMBL2209546</t>
-        </is>
-      </c>
-      <c r="S173" t="inlineStr">
-        <is>
-          <t>Inhibition of FAK after 2hrs by fluorescence polarization assay</t>
-        </is>
-      </c>
-      <c r="T173" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>CHEMBL4102284</t>
-        </is>
-      </c>
-      <c r="B174" t="n">
-        <v>1</v>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>Cc1nc(C)c(/C=C2\CN(C(C)C)C/C(=C\c3nc(C)c(C)nc3C)C2=NO)nc1C</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>Cc1nc(C)c(/C=C2\CN(C(C)C)C/C(=C\c3nc(C)c(C)nc3C)C2=NO)nc1C</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G174" t="n">
-        <v>420.56</v>
-      </c>
-      <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>6</v>
-      </c>
-      <c r="J174" t="n">
-        <v>3</v>
-      </c>
-      <c r="K174" t="n">
-        <v>3</v>
-      </c>
-      <c r="L174" t="n">
-        <v>2</v>
-      </c>
-      <c r="M174" t="n">
-        <v>87.39</v>
-      </c>
-      <c r="N174" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O174" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P174" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q174" t="n">
-        <v>1000</v>
-      </c>
-      <c r="R174" t="inlineStr">
-        <is>
-          <t>CHEMBL4034794</t>
-        </is>
-      </c>
-      <c r="S174" t="inlineStr">
-        <is>
-          <t>Inhibition of FAK (unknown origin) assembly preincubated with enzyme followed by GTP addition measured after 20 mins by spectrophotometric analysis</t>
-        </is>
-      </c>
-      <c r="T174" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>CHEMBL3665939</t>
-        </is>
-      </c>
-      <c r="B175" t="n">
-        <v>1</v>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>CCN(c1ccccc1Oc1nc(Nc2cc(F)c(C(=O)NC3CCN(C)CC3)cc2OC)ncc1C(F)(F)F)S(C)(=O)=O</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>CCN(c1ccccc1Oc1nc(Nc2cc(F)c(C(=O)NC3CCN(C)CC3)cc2OC)ncc1C(F)(F)F)S(C)(=O)=O</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G175" t="n">
-        <v>640.66</v>
-      </c>
-      <c r="H175" t="n">
-        <v>2</v>
-      </c>
-      <c r="I175" t="n">
-        <v>9</v>
-      </c>
-      <c r="J175" t="n">
-        <v>10</v>
-      </c>
-      <c r="K175" t="n">
-        <v>4</v>
-      </c>
-      <c r="L175" t="n">
-        <v>3</v>
-      </c>
-      <c r="M175" t="n">
-        <v>125.99</v>
-      </c>
-      <c r="N175" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O175" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P175" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q175" t="n">
-        <v>38</v>
-      </c>
-      <c r="R175" t="inlineStr">
-        <is>
-          <t>CHEMBL3705995</t>
-        </is>
-      </c>
-      <c r="S175" t="inlineStr">
-        <is>
-          <t>DELFIA Assay: This test uses active PTK2 enzyme (Invitrogen Code PV3832) and poly-Glu-Tyr (4:1, Sigma P-0275) as the kinase substrate. The kinase activity is detected by means of the phosphorylation of the substrate in a DELFIA assay. The phosphorylated substrate is detected with the Europium-labelled phosphotyrosine antibody PY20 (Perkin Elmer, No.: AD0038). In order to determine concentration-activity curves with PTK2-inhibitors the compounds are serially diluted in 10% DMSO/H2O and 10 L of each dilution are dispensed per well in a 96-well microtitre plate (clear U-shaped base plate, Greiner No. 650101) (the inhibitors are tested in duplicates) and mixed with 10 L/well of PTK2 kinase (0.01 ug/well). PTK2 kinase is diluted accordingly beforehand with kinase dilution buffer (20 mM TRIS/HCl pH 7.5, 0.1 mM EDTA, 0.1 mM EGTA, 0.286 mM sodium orthovanadate, 10% glycerol with the addition of freshly prepared BSA (fraction V 1 mg/mL) and DTT (1 mM)).</t>
-        </is>
-      </c>
-      <c r="T175" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>CHEMBL4776107</t>
-        </is>
-      </c>
-      <c r="B176" t="n">
-        <v>1</v>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>Cc1nc2c(s1)N(C)c1nc(Nc3ccc4c(c3)CCC(=O)N4)ncc1N(C)C2=O</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>Cc1nc2c(s1)N(C)c1nc(Nc3ccc4c(c3)CCC(=O)N4)ncc1N(C)C2=O</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G176" t="n">
-        <v>421.49</v>
-      </c>
-      <c r="H176" t="n">
-        <v>2</v>
-      </c>
-      <c r="I176" t="n">
-        <v>7</v>
-      </c>
-      <c r="J176" t="n">
-        <v>2</v>
-      </c>
-      <c r="K176" t="n">
-        <v>5</v>
-      </c>
-      <c r="L176" t="n">
-        <v>3</v>
-      </c>
-      <c r="M176" t="n">
-        <v>103.35</v>
-      </c>
-      <c r="N176" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O176" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P176" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q176" t="n">
-        <v>670</v>
-      </c>
-      <c r="R176" t="inlineStr">
-        <is>
-          <t>CHEMBL4679512</t>
-        </is>
-      </c>
-      <c r="S176" t="inlineStr">
-        <is>
-          <t>Inhibition of Focal adhesion kinase (unknown origin) using Tyr 07 peptide substrate incubated for 60 mins at room temperature followed by 60 mins development reaction measured fluorescence by Z-LYTE assay</t>
-        </is>
-      </c>
-      <c r="T176" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>CHEMBL1257912</t>
-        </is>
-      </c>
-      <c r="B177" t="n">
-        <v>1</v>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>CC(=O)Nc1ccc2c(c1)C(c1ccccc1Cl)=Nc1c[nH]nc1N2</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>CC(=O)Nc1ccc2c(c1)C(c1ccccc1Cl)=Nc1c[nH]nc1N2</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G177" t="n">
-        <v>351.8</v>
-      </c>
-      <c r="H177" t="n">
-        <v>3</v>
-      </c>
-      <c r="I177" t="n">
-        <v>3</v>
-      </c>
-      <c r="J177" t="n">
-        <v>2</v>
-      </c>
-      <c r="K177" t="n">
-        <v>4</v>
-      </c>
-      <c r="L177" t="n">
-        <v>4</v>
-      </c>
-      <c r="M177" t="n">
-        <v>82.17</v>
-      </c>
-      <c r="N177" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O177" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P177" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q177" t="n">
-        <v>180</v>
-      </c>
-      <c r="R177" t="inlineStr">
-        <is>
-          <t>CHEMBL1261154</t>
-        </is>
-      </c>
-      <c r="S177" t="inlineStr">
-        <is>
-          <t>Inhibition of FAK</t>
-        </is>
-      </c>
-      <c r="T177" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>CHEMBL3104855</t>
-        </is>
-      </c>
-      <c r="B178" t="n">
-        <v>1</v>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>Cc1c(O)c(O)c(O)c(C=O)c1-c1cc2c(C=O)c(C)c(O)c(O)c2o1</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>Cc1c(O)c(O)c(O)c(C=O)c1-c1cc2c(C=O)c(C)c(O)c(O)c2o1</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G178" t="n">
-        <v>358.3</v>
-      </c>
-      <c r="H178" t="n">
-        <v>5</v>
-      </c>
-      <c r="I178" t="n">
-        <v>8</v>
-      </c>
-      <c r="J178" t="n">
-        <v>3</v>
-      </c>
-      <c r="K178" t="n">
-        <v>3</v>
-      </c>
-      <c r="L178" t="n">
-        <v>3</v>
-      </c>
-      <c r="M178" t="n">
-        <v>148.43</v>
-      </c>
-      <c r="N178" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O178" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P178" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q178" t="n">
-        <v>800</v>
-      </c>
-      <c r="R178" t="inlineStr">
-        <is>
-          <t>CHEMBL3108325</t>
-        </is>
-      </c>
-      <c r="S178" t="inlineStr">
-        <is>
-          <t>Inhibition of FAK (unknown origin)</t>
-        </is>
-      </c>
-      <c r="T178" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>CHEMBL1940999</t>
-        </is>
-      </c>
-      <c r="B179" t="n">
-        <v>1</v>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>O=C(CCCn1[se]c2ccccc2c1=O)N[C@@H]1O[C@H](CO)[C@@H](O)[C@H](O)[C@H]1O</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>O=C(CCCn1[se]c2ccccc2c1=O)N[C@@H]1O[C@H](CO)[C@@H](O)[C@H](O)[C@H]1O</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G179" t="n">
-        <v>445.33</v>
-      </c>
-      <c r="H179" t="n">
-        <v>5</v>
-      </c>
-      <c r="I179" t="n">
-        <v>7</v>
-      </c>
-      <c r="J179" t="n">
-        <v>6</v>
-      </c>
-      <c r="K179" t="n">
-        <v>3</v>
-      </c>
-      <c r="L179" t="n">
-        <v>2</v>
-      </c>
-      <c r="M179" t="n">
-        <v>141.25</v>
-      </c>
-      <c r="N179" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O179" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P179" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q179" t="n">
-        <v>960</v>
-      </c>
-      <c r="R179" t="inlineStr">
-        <is>
-          <t>CHEMBL1944085</t>
-        </is>
-      </c>
-      <c r="S179" t="inlineStr">
-        <is>
-          <t>Inhibition of human recombinant full-length FAK using ATP and Poly Glu:Tyr as substrate after 4 hrs by luminescence analysis</t>
-        </is>
-      </c>
-      <c r="T179" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>CHEMBL550011</t>
-        </is>
-      </c>
-      <c r="B180" t="n">
-        <v>1</v>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>CN(C)CCN(Cc1ccc(Cl)cc1)c1ccccn1</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>CN(C)CCN(Cc1ccc(Cl)cc1)c1ccccn1</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G180" t="n">
-        <v>289.81</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>3</v>
-      </c>
-      <c r="J180" t="n">
-        <v>6</v>
-      </c>
-      <c r="K180" t="n">
-        <v>2</v>
-      </c>
-      <c r="L180" t="n">
-        <v>2</v>
-      </c>
-      <c r="M180" t="n">
-        <v>19.37</v>
-      </c>
-      <c r="N180" t="inlineStr">
-        <is>
-          <t>Kd</t>
-        </is>
-      </c>
-      <c r="O180" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P180" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q180" t="n">
-        <v>570</v>
-      </c>
-      <c r="R180" t="inlineStr">
-        <is>
-          <t>CHEMBL3268326</t>
-        </is>
-      </c>
-      <c r="S180" t="inlineStr">
-        <is>
-          <t>Binding affinity to biotinylated human FAK FAT domain by biolayer interoferometry</t>
-        </is>
-      </c>
-      <c r="T180" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>CHEMBL2036871</t>
-        </is>
-      </c>
-      <c r="B181" t="n">
-        <v>0</v>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>Cn1c(=O)c2ccc(-c3nc4ccccc4n3C)nc2n(C)c1=O</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>Cn1c(=O)c2ccc(-c3nc4ccccc4n3C)nc2n(C)c1=O</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G181" t="n">
-        <v>321.34</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>4</v>
-      </c>
-      <c r="J181" t="n">
-        <v>1</v>
-      </c>
-      <c r="K181" t="n">
-        <v>4</v>
-      </c>
-      <c r="L181" t="n">
-        <v>4</v>
-      </c>
-      <c r="M181" t="n">
-        <v>74.70999999999999</v>
-      </c>
-      <c r="N181" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O181" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P181" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q181" t="n">
-        <v>92000</v>
-      </c>
-      <c r="R181" t="inlineStr">
-        <is>
-          <t>CHEMBL2038024</t>
-        </is>
-      </c>
-      <c r="S181" t="inlineStr">
-        <is>
-          <t>Inhibition of recombinant FAK using poly(Glu,Tyr)4 as substrate assessed as inhibition of [33P]Phosphate incorporation into substrate after 80 mins by scintillation counting</t>
-        </is>
-      </c>
-      <c r="T181" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>CHEMBL3261189</t>
-        </is>
-      </c>
-      <c r="B182" t="n">
-        <v>0</v>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>COc1ccccc1/C=C\c1ncc([N+](=O)[O-])n1CCOC(=O)c1cccc2c1OCCO2</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>COc1ccccc1/C=C\c1ncc([N+](=O)[O-])n1CCOC(=O)c1cccc2c1OCCO2</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G182" t="n">
-        <v>451.44</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>8</v>
-      </c>
-      <c r="J182" t="n">
-        <v>8</v>
-      </c>
-      <c r="K182" t="n">
-        <v>4</v>
-      </c>
-      <c r="L182" t="n">
-        <v>3</v>
-      </c>
-      <c r="M182" t="n">
-        <v>114.95</v>
-      </c>
-      <c r="N182" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O182" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P182" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q182" t="n">
-        <v>30070</v>
-      </c>
-      <c r="R182" t="inlineStr">
-        <is>
-          <t>CHEMBL3268423</t>
-        </is>
-      </c>
-      <c r="S182" t="inlineStr">
-        <is>
-          <t>Inhibition of FAK (unknown origin) assembly after 20 mins by turbidimetric method</t>
-        </is>
-      </c>
-      <c r="T182" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>CHEMBL2425111</t>
-        </is>
-      </c>
-      <c r="B183" t="n">
-        <v>0</v>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>Brc1cncc(-c2nnn[nH]2)c1</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>Brc1cncc(-c2nnn[nH]2)c1</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G183" t="n">
-        <v>226.04</v>
-      </c>
-      <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>4</v>
-      </c>
-      <c r="J183" t="n">
-        <v>1</v>
-      </c>
-      <c r="K183" t="n">
-        <v>2</v>
-      </c>
-      <c r="L183" t="n">
-        <v>2</v>
-      </c>
-      <c r="M183" t="n">
-        <v>67.34999999999999</v>
-      </c>
-      <c r="N183" t="inlineStr">
-        <is>
-          <t>Kd</t>
-        </is>
-      </c>
-      <c r="O183" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P183" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q183" t="n">
-        <v>95000</v>
-      </c>
-      <c r="R183" t="inlineStr">
-        <is>
-          <t>CHEMBL2427451</t>
-        </is>
-      </c>
-      <c r="S183" t="inlineStr">
-        <is>
-          <t>Binding affinity to FAK kinase (unknown origin) by surface plasmon resonance assay</t>
-        </is>
-      </c>
-      <c r="T183" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>CHEMBL2425143</t>
-        </is>
-      </c>
-      <c r="B184" t="n">
-        <v>0</v>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>Cc1cc(=O)n2nc(C)c(C#N)c2[nH]1</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>Cc1cc(=O)n2nc(C)c(C#N)c2[nH]1</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G184" t="n">
-        <v>188.19</v>
-      </c>
-      <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>3</v>
-      </c>
-      <c r="J184" t="n">
-        <v>0</v>
-      </c>
-      <c r="K184" t="n">
-        <v>2</v>
-      </c>
-      <c r="L184" t="n">
-        <v>2</v>
-      </c>
-      <c r="M184" t="n">
-        <v>73.95</v>
-      </c>
-      <c r="N184" t="inlineStr">
-        <is>
-          <t>Kd</t>
-        </is>
-      </c>
-      <c r="O184" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P184" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q184" t="n">
-        <v>887000</v>
-      </c>
-      <c r="R184" t="inlineStr">
-        <is>
-          <t>CHEMBL2427451</t>
-        </is>
-      </c>
-      <c r="S184" t="inlineStr">
-        <is>
-          <t>Binding affinity to FAK kinase (unknown origin) by surface plasmon resonance assay</t>
-        </is>
-      </c>
-      <c r="T184" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>CHEMBL2425141</t>
-        </is>
-      </c>
-      <c r="B185" t="n">
-        <v>0</v>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>CC(=O)Nc1sccc1C(N)=O</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>CC(=O)Nc1sccc1C(N)=O</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G185" t="n">
-        <v>184.22</v>
-      </c>
-      <c r="H185" t="n">
-        <v>2</v>
-      </c>
-      <c r="I185" t="n">
-        <v>2</v>
-      </c>
-      <c r="J185" t="n">
-        <v>2</v>
-      </c>
-      <c r="K185" t="n">
-        <v>1</v>
-      </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="n">
-        <v>72.19</v>
-      </c>
-      <c r="N185" t="inlineStr">
-        <is>
-          <t>Kd</t>
-        </is>
-      </c>
-      <c r="O185" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P185" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q185" t="n">
-        <v>233000</v>
-      </c>
-      <c r="R185" t="inlineStr">
-        <is>
-          <t>CHEMBL2427451</t>
-        </is>
-      </c>
-      <c r="S185" t="inlineStr">
-        <is>
-          <t>Binding affinity to FAK kinase (unknown origin) by surface plasmon resonance assay</t>
-        </is>
-      </c>
-      <c r="T185" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>CHEMBL941</t>
-        </is>
-      </c>
-      <c r="B186" t="n">
-        <v>0</v>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>Cc1ccc(NC(=O)c2ccc(CN3CCN(C)CC3)cc2)cc1Nc1nccc(-c2cccnc2)n1</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>Cc1ccc(NC(=O)c2ccc(CN3CCN(C)CC3)cc2)cc1Nc1nccc(-c2cccnc2)n1</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G186" t="n">
-        <v>493.62</v>
-      </c>
-      <c r="H186" t="n">
-        <v>2</v>
-      </c>
-      <c r="I186" t="n">
-        <v>7</v>
-      </c>
-      <c r="J186" t="n">
-        <v>7</v>
-      </c>
-      <c r="K186" t="n">
-        <v>5</v>
-      </c>
-      <c r="L186" t="n">
-        <v>4</v>
-      </c>
-      <c r="M186" t="n">
-        <v>86.28</v>
-      </c>
-      <c r="N186" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O186" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P186" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q186" t="n">
-        <v>-62</v>
-      </c>
-      <c r="R186" t="inlineStr">
-        <is>
-          <t>CHEMBL4153877</t>
-        </is>
-      </c>
-      <c r="S186" t="inlineStr">
-        <is>
-          <t>Inhibition of FAK (unknown origin) at 10 uM by [33P]-ATP radiometric assay</t>
-        </is>
-      </c>
-      <c r="T186" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>CHEMBL1910715</t>
-        </is>
-      </c>
-      <c r="B187" t="n">
-        <v>0</v>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>O=C(c1c[nH]c2ccccc12)c1nccc2c1[nH]c1ccc(O)cc12</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>O=C(c1c[nH]c2ccccc12)c1nccc2c1[nH]c1ccc(O)cc12</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G187" t="n">
-        <v>327.34</v>
-      </c>
-      <c r="H187" t="n">
-        <v>3</v>
-      </c>
-      <c r="I187" t="n">
-        <v>3</v>
-      </c>
-      <c r="J187" t="n">
-        <v>2</v>
-      </c>
-      <c r="K187" t="n">
-        <v>5</v>
-      </c>
-      <c r="L187" t="n">
-        <v>5</v>
-      </c>
-      <c r="M187" t="n">
-        <v>81.77</v>
-      </c>
-      <c r="N187" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O187" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P187" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q187" t="n">
-        <v>11</v>
-      </c>
-      <c r="R187" t="inlineStr">
-        <is>
-          <t>CHEMBL1913273</t>
-        </is>
-      </c>
-      <c r="S187" t="inlineStr">
-        <is>
-          <t>Inhibition of human recombinant FAK at 10 uM after 4 hrs by Kinase-Glo luminescent assay</t>
-        </is>
-      </c>
-      <c r="T187" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>CHEMBL166031</t>
-        </is>
-      </c>
-      <c r="B188" t="n">
-        <v>0</v>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>CC(C)(C)c1cc(NC(=O)Nc2ccc(Oc3ccncc3)cc2)no1</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>CC(C)(C)c1cc(NC(=O)Nc2ccc(Oc3ccncc3)cc2)no1</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G188" t="n">
-        <v>352.39</v>
-      </c>
-      <c r="H188" t="n">
-        <v>2</v>
-      </c>
-      <c r="I188" t="n">
-        <v>5</v>
-      </c>
-      <c r="J188" t="n">
-        <v>4</v>
-      </c>
-      <c r="K188" t="n">
-        <v>3</v>
-      </c>
-      <c r="L188" t="n">
-        <v>3</v>
-      </c>
-      <c r="M188" t="n">
-        <v>89.28</v>
-      </c>
-      <c r="N188" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O188" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P188" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q188" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="R188" t="inlineStr">
-        <is>
-          <t>CHEMBL3630493</t>
-        </is>
-      </c>
-      <c r="S188" t="inlineStr">
-        <is>
-          <t>Inhibition of FAK (unknown origin) at 10 uM after 120 mins P33 radiolabeled kinase activity assay</t>
-        </is>
-      </c>
-      <c r="T188" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>CHEMBL2216825</t>
-        </is>
-      </c>
-      <c r="B189" t="n">
-        <v>0</v>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>C[C@H]1O[C@@H]2CC(=O)O[C@@H]2C2=C1C(=O)c1c(ccc([C@H]3C[C@@H](N(C)C)[C@H](O)[C@@H](C)O3)c1O)C2=O</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>C[C@H]1O[C@@H]2CC(=O)O[C@@H]2C2=C1C(=O)c1c(ccc([C@H]3C[C@@H](N(C)C)[C@H](O)[C@@H](C)O3)c1O)C2=O</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G189" t="n">
-        <v>457.48</v>
-      </c>
-      <c r="H189" t="n">
-        <v>2</v>
-      </c>
-      <c r="I189" t="n">
-        <v>9</v>
-      </c>
-      <c r="J189" t="n">
-        <v>2</v>
-      </c>
-      <c r="K189" t="n">
-        <v>5</v>
-      </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="n">
-        <v>122.6</v>
-      </c>
-      <c r="N189" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O189" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P189" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q189" t="n">
-        <v>12</v>
-      </c>
-      <c r="R189" t="inlineStr">
-        <is>
-          <t>CHEMBL1019637</t>
-        </is>
-      </c>
-      <c r="S189" t="inlineStr">
-        <is>
-          <t>Inhibition of PTK2 at 1 uM</t>
-        </is>
-      </c>
-      <c r="T189" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>CHEMBL4207014</t>
-        </is>
-      </c>
-      <c r="B190" t="n">
-        <v>0</v>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>CS(=O)(=O)c1ccc(-n2nc(-c3cnc4[nH]ccc4c3)c3c(N)ncnc32)cc1</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>CS(=O)(=O)c1ccc(-n2nc(-c3cnc4[nH]ccc4c3)c3c(N)ncnc32)cc1</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G190" t="n">
-        <v>405.44</v>
-      </c>
-      <c r="H190" t="n">
-        <v>2</v>
-      </c>
-      <c r="I190" t="n">
-        <v>7</v>
-      </c>
-      <c r="J190" t="n">
-        <v>3</v>
-      </c>
-      <c r="K190" t="n">
-        <v>5</v>
-      </c>
-      <c r="L190" t="n">
-        <v>5</v>
-      </c>
-      <c r="M190" t="n">
-        <v>132.44</v>
-      </c>
-      <c r="N190" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O190" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P190" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q190" t="n">
-        <v>3</v>
-      </c>
-      <c r="R190" t="inlineStr">
-        <is>
-          <t>CHEMBL4190967</t>
-        </is>
-      </c>
-      <c r="S190" t="inlineStr">
-        <is>
-          <t>Inhibition of recombinant human FAK (411 to 686 residues) at 1 uM using EEEEYEEEEEEYYIIEEEEEEYEEEEEEYYEEEEEEKKKK as substrate after 40 mins in presence of [gamma-33P]ATP by scintillation counting method</t>
-        </is>
-      </c>
-      <c r="T190" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>CHEMBL3758768</t>
-        </is>
-      </c>
-      <c r="B191" t="n">
-        <v>0</v>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>COc1cc(CO)ccc1-c1cc2c(Nc3ccccc3)ncnc2s1</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>COc1cc(CO)ccc1-c1cc2c(Nc3ccccc3)ncnc2s1</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G191" t="n">
-        <v>363.44</v>
-      </c>
-      <c r="H191" t="n">
-        <v>2</v>
-      </c>
-      <c r="I191" t="n">
-        <v>5</v>
-      </c>
-      <c r="J191" t="n">
-        <v>5</v>
-      </c>
-      <c r="K191" t="n">
-        <v>4</v>
-      </c>
-      <c r="L191" t="n">
-        <v>4</v>
-      </c>
-      <c r="M191" t="n">
-        <v>67.27</v>
-      </c>
-      <c r="N191" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O191" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P191" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q191" t="n">
-        <v>15</v>
-      </c>
-      <c r="R191" t="inlineStr">
-        <is>
-          <t>CHEMBL3761601</t>
-        </is>
-      </c>
-      <c r="S191" t="inlineStr">
-        <is>
-          <t>Inhibition of PTK2 (unknown origin) at 500 nM</t>
-        </is>
-      </c>
-      <c r="T191" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>CHEMBL607196</t>
-        </is>
-      </c>
-      <c r="B192" t="n">
-        <v>0</v>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>O=C1Nc2ccccc2/C1=C1\C(=O)N(CCCc2ccccc2)c2ccccc21</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>O=C1Nc2ccccc2/C1=C1\C(=O)N(CCCc2ccccc2)c2ccccc21</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G192" t="n">
-        <v>380.45</v>
-      </c>
-      <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>2</v>
-      </c>
-      <c r="J192" t="n">
-        <v>4</v>
-      </c>
-      <c r="K192" t="n">
-        <v>5</v>
-      </c>
-      <c r="L192" t="n">
-        <v>3</v>
-      </c>
-      <c r="M192" t="n">
-        <v>49.41</v>
-      </c>
-      <c r="N192" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O192" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P192" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q192" t="n">
-        <v>0</v>
-      </c>
-      <c r="R192" t="inlineStr">
-        <is>
-          <t>CHEMBL1069301</t>
-        </is>
-      </c>
-      <c r="S192" t="inlineStr">
-        <is>
-          <t>Inhibition of FAK at 10 uM</t>
-        </is>
-      </c>
-      <c r="T192" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>CHEMBL1241462</t>
-        </is>
-      </c>
-      <c r="B193" t="n">
-        <v>0</v>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>c1cc(-c2cc(C3CCNCC3)n[nH]2)ccn1</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>c1cc(-c2cc(C3CCNCC3)n[nH]2)ccn1</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G193" t="n">
-        <v>228.3</v>
-      </c>
-      <c r="H193" t="n">
-        <v>2</v>
-      </c>
-      <c r="I193" t="n">
-        <v>3</v>
-      </c>
-      <c r="J193" t="n">
-        <v>2</v>
-      </c>
-      <c r="K193" t="n">
-        <v>3</v>
-      </c>
-      <c r="L193" t="n">
-        <v>2</v>
-      </c>
-      <c r="M193" t="n">
-        <v>53.6</v>
-      </c>
-      <c r="N193" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O193" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P193" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q193" t="n">
-        <v>15</v>
-      </c>
-      <c r="R193" t="inlineStr">
-        <is>
-          <t>CHEMBL1246553</t>
-        </is>
-      </c>
-      <c r="S193" t="inlineStr">
-        <is>
-          <t>Inhibition of FAK at 5 uM</t>
-        </is>
-      </c>
-      <c r="T193" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>CHEMBL519311</t>
-        </is>
-      </c>
-      <c r="B194" t="n">
-        <v>0</v>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>CN(C)CC(C)(C)CNC(=O)C1CCN(c2cc(N3CCOCC3)nc(N)n2)CC1</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>CN(C)CC(C)(C)CNC(=O)C1CCN(c2cc(N3CCOCC3)nc(N)n2)CC1</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G194" t="n">
-        <v>419.57</v>
-      </c>
-      <c r="H194" t="n">
-        <v>2</v>
-      </c>
-      <c r="I194" t="n">
-        <v>8</v>
-      </c>
-      <c r="J194" t="n">
-        <v>7</v>
-      </c>
-      <c r="K194" t="n">
-        <v>3</v>
-      </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="n">
-        <v>99.84999999999999</v>
-      </c>
-      <c r="N194" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O194" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P194" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q194" t="n">
-        <v>3</v>
-      </c>
-      <c r="R194" t="inlineStr">
-        <is>
-          <t>CHEMBL953401</t>
-        </is>
-      </c>
-      <c r="S194" t="inlineStr">
-        <is>
-          <t>Inhibition of FAK at 10 uM by HTRF assay relative to control</t>
-        </is>
-      </c>
-      <c r="T194" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>CHEMBL2012574</t>
-        </is>
-      </c>
-      <c r="B195" t="n">
-        <v>0</v>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>COc1ccc2c3ccnc(C(F)(F)F)c3n(CCCCN)c2c1</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>COc1ccc2c3ccnc(C(F)(F)F)c3n(CCCCN)c2c1</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G195" t="n">
-        <v>337.35</v>
-      </c>
-      <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>3</v>
-      </c>
-      <c r="J195" t="n">
-        <v>5</v>
-      </c>
-      <c r="K195" t="n">
-        <v>3</v>
-      </c>
-      <c r="L195" t="n">
-        <v>3</v>
-      </c>
-      <c r="M195" t="n">
-        <v>53.07</v>
-      </c>
-      <c r="N195" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O195" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P195" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q195" t="n">
-        <v>0</v>
-      </c>
-      <c r="R195" t="inlineStr">
-        <is>
-          <t>CHEMBL2014152</t>
-        </is>
-      </c>
-      <c r="S195" t="inlineStr">
-        <is>
-          <t>Inhibition of FAK at 10 uM</t>
-        </is>
-      </c>
-      <c r="T195" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
